--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Fgf16-Fgfr3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Fgf16-Fgfr3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>MuSCs</t>
   </si>
   <si>
@@ -85,19 +88,7 @@
     <t>Fgfr3</t>
   </si>
   <si>
-    <t>ECs</t>
-  </si>
-  <si>
     <t>FAPs</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -528,13 +519,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -543,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.8537625</v>
+        <v>0.2355055</v>
       </c>
       <c r="H2">
-        <v>3.707525</v>
+        <v>0.471011</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.2095102068231121</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.2095102068231121</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.834606</v>
+        <v>7.6704545</v>
       </c>
       <c r="N2">
-        <v>13.669212</v>
+        <v>15.340909</v>
       </c>
       <c r="O2">
-        <v>0.5800266923841274</v>
+        <v>0.8278663930876066</v>
       </c>
       <c r="P2">
-        <v>0.4933860619101292</v>
+        <v>0.7913005936208135</v>
       </c>
       <c r="Q2">
-        <v>12.669736305075</v>
+        <v>1.80643422224975</v>
       </c>
       <c r="R2">
-        <v>50.6789452203</v>
+        <v>7.225736888999</v>
       </c>
       <c r="S2">
-        <v>0.5800266923841274</v>
+        <v>0.1734464592376883</v>
       </c>
       <c r="T2">
-        <v>0.4933860619101292</v>
+        <v>0.165785551028748</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,10 +581,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
         <v>24</v>
@@ -605,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.8537625</v>
+        <v>0.2355055</v>
       </c>
       <c r="H3">
-        <v>3.707525</v>
+        <v>0.471011</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.2095102068231121</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.2095102068231121</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +620,22 @@
         <v>2.568891</v>
       </c>
       <c r="O3">
-        <v>0.07267062894458745</v>
+        <v>0.0924194920655273</v>
       </c>
       <c r="P3">
-        <v>0.09272334162103665</v>
+        <v>0.1325061620042962</v>
       </c>
       <c r="Q3">
-        <v>1.5873712674625</v>
+        <v>0.2016626531335</v>
       </c>
       <c r="R3">
-        <v>9.524227604775</v>
+        <v>1.209975918801</v>
       </c>
       <c r="S3">
-        <v>0.07267062894458745</v>
+        <v>0.01936282689713559</v>
       </c>
       <c r="T3">
-        <v>0.09272334162103665</v>
+        <v>0.0277613934068569</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,14 +643,14 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
         <v>21</v>
       </c>
-      <c r="C4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
       <c r="E4">
         <v>2</v>
       </c>
@@ -667,57 +658,57 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.8537625</v>
+        <v>0.2355055</v>
       </c>
       <c r="H4">
-        <v>3.707525</v>
+        <v>0.471011</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.2095102068231121</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.2095102068231121</v>
       </c>
       <c r="K4">
         <v>2</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.2788403333333334</v>
+        <v>0.7385775</v>
       </c>
       <c r="N4">
-        <v>0.8365210000000001</v>
+        <v>1.477155</v>
       </c>
       <c r="O4">
-        <v>0.02366410532613305</v>
+        <v>0.0797141148468662</v>
       </c>
       <c r="P4">
-        <v>0.03019397181747735</v>
+        <v>0.07619324437489022</v>
       </c>
       <c r="Q4">
-        <v>0.5169037534208334</v>
+        <v>0.17393906342625</v>
       </c>
       <c r="R4">
-        <v>3.101422520525</v>
+        <v>0.695756253705</v>
       </c>
       <c r="S4">
-        <v>0.02366410532613305</v>
+        <v>0.01670092068828825</v>
       </c>
       <c r="T4">
-        <v>0.03019397181747735</v>
+        <v>0.01596326238750717</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
         <v>20</v>
@@ -729,16 +720,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.8537625</v>
+        <v>0.888571</v>
       </c>
       <c r="H5">
-        <v>3.707525</v>
+        <v>1.777142</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.7904897931768879</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.7904897931768879</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,42 +738,42 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.8102764999999998</v>
+        <v>7.6704545</v>
       </c>
       <c r="N5">
-        <v>1.620553</v>
+        <v>15.340909</v>
       </c>
       <c r="O5">
-        <v>0.06876504632623845</v>
+        <v>0.8278663930876066</v>
       </c>
       <c r="P5">
-        <v>0.05849336909740264</v>
+        <v>0.7913005936208135</v>
       </c>
       <c r="Q5">
-        <v>1.50206019033125</v>
+        <v>6.8157434255195</v>
       </c>
       <c r="R5">
-        <v>6.008240761324998</v>
+        <v>27.262973702078</v>
       </c>
       <c r="S5">
-        <v>0.06876504632623845</v>
+        <v>0.6544199338499184</v>
       </c>
       <c r="T5">
-        <v>0.05849336909740264</v>
+        <v>0.6255150425920655</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -791,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.8537625</v>
+        <v>0.888571</v>
       </c>
       <c r="H6">
-        <v>3.707525</v>
+        <v>1.777142</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0.7904897931768879</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>0.7904897931768879</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,43 +800,43 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.949111</v>
+        <v>0.856297</v>
       </c>
       <c r="N6">
-        <v>8.847333000000001</v>
+        <v>2.568891</v>
       </c>
       <c r="O6">
-        <v>0.2502796940750712</v>
+        <v>0.0924194920655273</v>
       </c>
       <c r="P6">
-        <v>0.319341801654516</v>
+        <v>0.1325061620042962</v>
       </c>
       <c r="Q6">
-        <v>5.4669513801375</v>
+        <v>0.760880681587</v>
       </c>
       <c r="R6">
-        <v>32.801708280825</v>
+        <v>4.565284089522</v>
       </c>
       <c r="S6">
-        <v>0.2502796940750712</v>
+        <v>0.07305666516839171</v>
       </c>
       <c r="T6">
-        <v>0.319341801654516</v>
+        <v>0.1047447685974393</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
         <v>21</v>
       </c>
-      <c r="C7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" t="s">
-        <v>27</v>
-      </c>
       <c r="E7">
         <v>2</v>
       </c>
@@ -853,46 +844,46 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.8537625</v>
+        <v>0.888571</v>
       </c>
       <c r="H7">
-        <v>3.707525</v>
+        <v>1.777142</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>0.7904897931768879</v>
       </c>
       <c r="J7">
-        <v>1</v>
+        <v>0.7904897931768879</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.05413033333333334</v>
+        <v>0.7385775</v>
       </c>
       <c r="N7">
-        <v>0.162391</v>
+        <v>1.477155</v>
       </c>
       <c r="O7">
-        <v>0.0045938329438425</v>
+        <v>0.0797141148468662</v>
       </c>
       <c r="P7">
-        <v>0.005861453899438226</v>
+        <v>0.07619324437489022</v>
       </c>
       <c r="Q7">
-        <v>0.1003447820458333</v>
+        <v>0.6562785477525001</v>
       </c>
       <c r="R7">
-        <v>0.602068692275</v>
+        <v>2.62511419101</v>
       </c>
       <c r="S7">
-        <v>0.0045938329438425</v>
+        <v>0.06301319415857796</v>
       </c>
       <c r="T7">
-        <v>0.005861453899438226</v>
+        <v>0.06022998198738305</v>
       </c>
     </row>
   </sheetData>
